--- a/documentation/Portfolioüberblick-Anteile.xlsx
+++ b/documentation/Portfolioüberblick-Anteile.xlsx
@@ -14,6 +14,10 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Toc478373241" localSheetId="0">Tabelle1!$C$13</definedName>
+    <definedName name="_Toc478373250" localSheetId="0">Tabelle1!$C$17</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Dokument</t>
   </si>
   <si>
-    <t>Kapitel/Abschnitt</t>
-  </si>
-  <si>
     <t>Daniel Jaßen</t>
   </si>
   <si>
@@ -47,34 +48,121 @@
     <t>Anteil in %</t>
   </si>
   <si>
-    <t>Kommentar</t>
-  </si>
-  <si>
-    <t>genauen Namen angeben</t>
-  </si>
-  <si>
     <t>Projektskizze</t>
   </si>
   <si>
     <t>Teamdaten</t>
   </si>
   <si>
-    <t>grundsätzlich fürs Ergänzen/Kommentare/drüber lesen 10%?</t>
-  </si>
-  <si>
     <t>Projekt aufsetzen</t>
   </si>
   <si>
     <t>Trello</t>
   </si>
   <si>
-    <t>mit aufnehmen?</t>
-  </si>
-  <si>
-    <t>mit aufnehmen? =&gt; verweisen wir später irgendwo auf Trello?</t>
-  </si>
-  <si>
     <t>Meilenstein</t>
+  </si>
+  <si>
+    <t>Gui Mockups</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>scribbles.ep / Scribbles_Bilder</t>
+  </si>
+  <si>
+    <t>FST16_M2_T06.xls</t>
+  </si>
+  <si>
+    <t>FST16_M2_T06_Expose.pdf</t>
+  </si>
+  <si>
+    <t>Domänendiagramm.vsd</t>
+  </si>
+  <si>
+    <t>Domänenklassendiagramm</t>
+  </si>
+  <si>
+    <t>fmc_arzt_app.vst</t>
+  </si>
+  <si>
+    <t>Plattformskizze</t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>KanoUndAHP_team06.xls</t>
+  </si>
+  <si>
+    <t>Kano + AHP</t>
+  </si>
+  <si>
+    <t>UseCases.vsd</t>
+  </si>
+  <si>
+    <t>UseCases UML</t>
+  </si>
+  <si>
+    <t>FST17_M3_Aerzteapp.doc</t>
+  </si>
+  <si>
+    <t>Kapitel</t>
+  </si>
+  <si>
+    <t>1.1 Projektorganisation und -infrastruktur:</t>
+  </si>
+  <si>
+    <t>1.2 Ist-Analyse</t>
+  </si>
+  <si>
+    <t>1.3 Soll Konzept (Produktskizze)</t>
+  </si>
+  <si>
+    <t>1.4 Stakeholder</t>
+  </si>
+  <si>
+    <t>1.5.1 Liste der funktionalen Anforderungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5.2 Nichtfunktionale Anforderungen </t>
+  </si>
+  <si>
+    <t>1.5.3 Charakterisierung nach Kano</t>
+  </si>
+  <si>
+    <t>1.5.4 Priorisierung mit Analytical Hierarchy Process (AHP)</t>
+  </si>
+  <si>
+    <t>1.6.1 Liste der Anwendungsfälle</t>
+  </si>
+  <si>
+    <t>1.6.2 Anwendungsfall 1: Suchen innerhalb des Systems</t>
+  </si>
+  <si>
+    <t>1.6.3 Anwendungsfall 2: Übersichten</t>
+  </si>
+  <si>
+    <t>1.6.4 Anwendungsfall 3: Termin reservieren</t>
+  </si>
+  <si>
+    <t>1.6.5 Anwendungsfall 4: Termin stornieren</t>
+  </si>
+  <si>
+    <t>1.6.6 Anwendungsfall 5: Termin per Email bestätigen</t>
+  </si>
+  <si>
+    <t>1.7 Domänendiagramm</t>
+  </si>
+  <si>
+    <t>1.8 Glossar mit Datenbeschreibungen</t>
+  </si>
+  <si>
+    <t>1.9 Architekturskizze</t>
+  </si>
+  <si>
+    <t>1.10 GUI-Mockups</t>
   </si>
 </sst>
 </file>
@@ -401,41 +489,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -445,21 +534,21 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -471,10 +560,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -485,8 +574,12 @@
       <c r="G3">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
-        <v>8</v>
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <f>SUM(E3:H3)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -494,10 +587,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -506,21 +599,25 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I29" si="0">SUM(E4:H4)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -528,16 +625,657 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
-        <v>14</v>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>70</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="I6" t="s">
-        <v>15</v>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>70</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>70</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>70</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>70</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>70</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>70</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>40</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>70</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>70</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>70</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>70</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <v>25</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>70</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27">
+        <v>70</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Portfolioüberblick-Anteile.xlsx
+++ b/documentation/Portfolioüberblick-Anteile.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>Dokument</t>
   </si>
@@ -163,6 +163,60 @@
   </si>
   <si>
     <t>1.10 GUI-Mockups</t>
+  </si>
+  <si>
+    <t>Aktivitätsdiagramm.vsd</t>
+  </si>
+  <si>
+    <t>Aktivtätsdiagramm</t>
+  </si>
+  <si>
+    <t>Klassendiagram.vsd</t>
+  </si>
+  <si>
+    <t>Klassendiagramm</t>
+  </si>
+  <si>
+    <t>Komponentendiagramm.vsd</t>
+  </si>
+  <si>
+    <t>Komponentendiagramm</t>
+  </si>
+  <si>
+    <t>seq_dia_reservation_v2.vsd</t>
+  </si>
+  <si>
+    <t>Sequenzdiagramm</t>
+  </si>
+  <si>
+    <t>Zustandsdiagramm.vsd</t>
+  </si>
+  <si>
+    <t>Zustandsdiagramm</t>
+  </si>
+  <si>
+    <t>FST17_M4_Aerzteapp.doc</t>
+  </si>
+  <si>
+    <t>1 Architekturkonzept</t>
+  </si>
+  <si>
+    <t>2 Komponentendiagramm</t>
+  </si>
+  <si>
+    <t>4 Sequenzdiagramm</t>
+  </si>
+  <si>
+    <t>5 Aktivitätsdiagramm</t>
+  </si>
+  <si>
+    <t>6 Zustandsdiagramm</t>
+  </si>
+  <si>
+    <t>7 Realisierungstechnologien</t>
+  </si>
+  <si>
+    <t>3 Grobentwurf (Klassendiagramm)</t>
   </si>
 </sst>
 </file>
@@ -489,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +659,7 @@
         <v>100</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I29" si="0">SUM(E4:H4)</f>
+        <f t="shared" ref="I4:I41" si="0">SUM(E4:H4)</f>
         <v>100</v>
       </c>
     </row>
@@ -1274,6 +1328,330 @@
         <v>10</v>
       </c>
       <c r="I29">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>70</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>70</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>70</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34">
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <v>30</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35">
+        <v>70</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>70</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>70</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>70</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>70</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40">
+        <v>70</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41">
+        <v>70</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>

--- a/documentation/Portfolioüberblick-Anteile.xlsx
+++ b/documentation/Portfolioüberblick-Anteile.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rt57\workspace\termin\doctorcalendar\documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <definedName name="_Toc478373241" localSheetId="0">Tabelle1!$C$13</definedName>
     <definedName name="_Toc478373250" localSheetId="0">Tabelle1!$C$17</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>Dokument</t>
   </si>
@@ -217,12 +212,18 @@
   </si>
   <si>
     <t>3 Grobentwurf (Klassendiagramm)</t>
+  </si>
+  <si>
+    <t>Programmierung</t>
+  </si>
+  <si>
+    <t>Poster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -535,7 +536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -543,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +660,7 @@
         <v>100</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I41" si="0">SUM(E4:H4)</f>
+        <f t="shared" ref="I4:I43" si="0">SUM(E4:H4)</f>
         <v>100</v>
       </c>
     </row>
@@ -1652,6 +1653,54 @@
         <v>10</v>
       </c>
       <c r="I41">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42">
+        <v>70</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>30</v>
+      </c>
+      <c r="G43">
+        <v>30</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>

--- a/documentation/Portfolioüberblick-Anteile.xlsx
+++ b/documentation/Portfolioüberblick-Anteile.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rt57\workspace\termin\doctorcalendar\documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <definedName name="_Toc478373241" localSheetId="0">Tabelle1!$C$13</definedName>
     <definedName name="_Toc478373250" localSheetId="0">Tabelle1!$C$17</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>Dokument</t>
   </si>
@@ -218,12 +223,48 @@
   </si>
   <si>
     <t>Poster</t>
+  </si>
+  <si>
+    <t>FST17_M7_Aerzteapp_Projektbericht.doc</t>
+  </si>
+  <si>
+    <t>1 Einleitung</t>
+  </si>
+  <si>
+    <t>2 Vision</t>
+  </si>
+  <si>
+    <t>3 Anforderungsspezifikation</t>
+  </si>
+  <si>
+    <t>4 Softwarespezifikation</t>
+  </si>
+  <si>
+    <t>5 Architekturkonzeption</t>
+  </si>
+  <si>
+    <t>6 Grobentwurf</t>
+  </si>
+  <si>
+    <t>7 Implementierung des Prototyps</t>
+  </si>
+  <si>
+    <t>8 Glossar</t>
+  </si>
+  <si>
+    <t>9 Fazit</t>
+  </si>
+  <si>
+    <t>reflexion_janssendaniel.doc</t>
+  </si>
+  <si>
+    <t>reflexion_felixnguyen.doc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -536,7 +577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,15 +585,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -660,7 +701,7 @@
         <v>100</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I43" si="0">SUM(E4:H4)</f>
+        <f t="shared" ref="I4:I57" si="0">SUM(E4:H4)</f>
         <v>100</v>
       </c>
     </row>
@@ -1665,16 +1706,16 @@
         <v>63</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
@@ -1703,6 +1744,252 @@
       <c r="I43">
         <f t="shared" si="0"/>
         <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44">
+        <v>70</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45">
+        <v>70</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>10</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51">
+        <v>70</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>10</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53">
+        <v>100</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Portfolioüberblick-Anteile.xlsx
+++ b/documentation/Portfolioüberblick-Anteile.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
   <si>
     <t>Dokument</t>
   </si>
@@ -234,9 +234,6 @@
     <t>2 Vision</t>
   </si>
   <si>
-    <t>3 Anforderungsspezifikation</t>
-  </si>
-  <si>
     <t>4 Softwarespezifikation</t>
   </si>
   <si>
@@ -259,6 +256,12 @@
   </si>
   <si>
     <t>reflexion_felixnguyen.doc</t>
+  </si>
+  <si>
+    <t>3 Anforderungsspezifikation (3.1-3.2)</t>
+  </si>
+  <si>
+    <t>4 Anforderungsspezifikation (3.3-3.4)</t>
   </si>
 </sst>
 </file>
@@ -585,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +704,7 @@
         <v>100</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I57" si="0">SUM(E4:H4)</f>
+        <f t="shared" ref="I4:I58" si="0">SUM(E4:H4)</f>
         <v>100</v>
       </c>
     </row>
@@ -1808,11 +1811,23 @@
         <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="E46">
+        <v>70</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1823,11 +1838,7 @@
         <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1838,7 +1849,7 @@
         <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
@@ -1853,7 +1864,7 @@
         <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
@@ -1868,7 +1879,7 @@
         <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
@@ -1883,23 +1894,11 @@
         <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51">
-        <v>70</v>
-      </c>
-      <c r="F51">
-        <v>10</v>
-      </c>
-      <c r="G51">
-        <v>10</v>
-      </c>
-      <c r="H51">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -1910,11 +1909,23 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="E52">
+        <v>70</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -1922,23 +1933,14 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53">
-        <v>100</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
+        <v>73</v>
       </c>
       <c r="I53">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -1946,16 +1948,16 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1969,9 +1971,24 @@
       <c r="A55">
         <v>7</v>
       </c>
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>100</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
       <c r="I55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -1988,6 +2005,15 @@
         <v>7</v>
       </c>
       <c r="I57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="I58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/documentation/Portfolioüberblick-Anteile.xlsx
+++ b/documentation/Portfolioüberblick-Anteile.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rt57\workspace\termin\doctorcalendar\documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -18,7 +13,7 @@
     <definedName name="_Toc478373241" localSheetId="0">Tabelle1!$C$13</definedName>
     <definedName name="_Toc478373250" localSheetId="0">Tabelle1!$C$17</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -267,7 +262,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,7 +575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -590,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F20" sqref="C20:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,6 +1835,22 @@
       <c r="C47" t="s">
         <v>77</v>
       </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>70</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -1851,9 +1862,21 @@
       <c r="C48" t="s">
         <v>68</v>
       </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>70</v>
+      </c>
+      <c r="G48">
+        <v>10</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
       <c r="I48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">

--- a/documentation/Portfolioüberblick-Anteile.xlsx
+++ b/documentation/Portfolioüberblick-Anteile.xlsx
@@ -575,7 +575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -586,7 +586,7 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F20" sqref="C20:F22"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1889,9 +1889,21 @@
       <c r="C49" t="s">
         <v>69</v>
       </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>70</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>10</v>
+      </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">

--- a/documentation/Portfolioüberblick-Anteile.xlsx
+++ b/documentation/Portfolioüberblick-Anteile.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
   <si>
     <t>Dokument</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>4 Anforderungsspezifikation (3.3-3.4)</t>
+  </si>
+  <si>
+    <t>reflexion_danielschmidt.doc</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -585,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F3:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,10 +1038,10 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -1916,9 +1919,21 @@
       <c r="C50" t="s">
         <v>70</v>
       </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>70</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
       <c r="I50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2030,9 +2045,24 @@
       <c r="A56">
         <v>7</v>
       </c>
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">

--- a/documentation/Portfolioüberblick-Anteile.xlsx
+++ b/documentation/Portfolioüberblick-Anteile.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <t>Dokument</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>reflexion_danielschmidt.doc</t>
+  </si>
+  <si>
+    <t>teamreflexion.docx</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -589,7 +592,7 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F3:F11"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,9 +1949,21 @@
       <c r="C51" t="s">
         <v>71</v>
       </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>70</v>
+      </c>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -1988,9 +2003,21 @@
       <c r="C53" t="s">
         <v>73</v>
       </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>70</v>
+      </c>
       <c r="I53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2078,9 +2105,24 @@
       <c r="A58">
         <v>7</v>
       </c>
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58">
+        <v>25</v>
+      </c>
+      <c r="F58">
+        <v>25</v>
+      </c>
+      <c r="G58">
+        <v>25</v>
+      </c>
+      <c r="H58">
+        <v>25</v>
+      </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Portfolioüberblick-Anteile.xlsx
+++ b/documentation/Portfolioüberblick-Anteile.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rt57\workspace\termin\doctorcalendar\documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <definedName name="_Toc478373241" localSheetId="0">Tabelle1!$C$13</definedName>
     <definedName name="_Toc478373250" localSheetId="0">Tabelle1!$C$17</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
     <t>Dokument</t>
   </si>
@@ -256,19 +261,22 @@
     <t>3 Anforderungsspezifikation (3.1-3.2)</t>
   </si>
   <si>
-    <t>4 Anforderungsspezifikation (3.3-3.4)</t>
-  </si>
-  <si>
     <t>reflexion_danielschmidt.doc</t>
   </si>
   <si>
     <t>teamreflexion.docx</t>
+  </si>
+  <si>
+    <t>3 Anforderungsspezifikation (3.3-3.4)</t>
+  </si>
+  <si>
+    <t>reflexion_timscherer.doc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,7 +589,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -591,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,7 +1847,7 @@
         <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E47">
         <v>10</v>
@@ -2073,7 +2081,7 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2096,9 +2104,24 @@
       <c r="A57">
         <v>7</v>
       </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>100</v>
+      </c>
       <c r="I57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2106,7 +2129,7 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E58">
         <v>25</v>
